--- a/Data/Cashflow_calendar.xlsx
+++ b/Data/Cashflow_calendar.xlsx
@@ -1,13 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IRAXA11\Desktop\Repositories\Expected_recovery_rates\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12300"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BO$23</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="u7h6s4QwkdQSchSbtDNSejd42cs/Az6Z2XUV1xeOMaY="/>
@@ -415,30 +426,31 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <strike/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -449,67 +461,64 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -699,30 +708,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:BO991"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.0"/>
-    <col customWidth="1" min="2" max="3" width="11.29"/>
-    <col customWidth="1" min="4" max="5" width="7.71"/>
-    <col customWidth="1" min="6" max="6" width="8.43"/>
-    <col customWidth="1" min="7" max="27" width="11.29"/>
-    <col customWidth="1" min="28" max="47" width="11.0"/>
-    <col customWidth="1" min="48" max="64" width="9.71"/>
-    <col customWidth="1" min="65" max="67" width="8.71"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="27" width="11.28515625" customWidth="1"/>
+    <col min="28" max="47" width="11" customWidth="1"/>
+    <col min="48" max="64" width="9.7109375" customWidth="1"/>
+    <col min="65" max="67" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -921,12 +933,12 @@
       <c r="BN1" s="4"/>
       <c r="BO1" s="4"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:67" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="4">
-        <v>38373.0</v>
+        <v>38373</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>66</v>
@@ -938,67 +950,67 @@
         <v>2.25</v>
       </c>
       <c r="F2" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="G2" s="4">
-        <v>38554.0</v>
+        <v>38554</v>
       </c>
       <c r="H2" s="4">
-        <v>38738.0</v>
+        <v>38738</v>
       </c>
       <c r="I2" s="4">
-        <v>38919.0</v>
+        <v>38919</v>
       </c>
       <c r="J2" s="4">
-        <v>39103.0</v>
+        <v>39103</v>
       </c>
       <c r="K2" s="4">
-        <v>39284.0</v>
+        <v>39284</v>
       </c>
       <c r="L2" s="4">
-        <v>39468.0</v>
+        <v>39468</v>
       </c>
       <c r="M2" s="4">
-        <v>39650.0</v>
+        <v>39650</v>
       </c>
       <c r="N2" s="4">
-        <v>39834.0</v>
+        <v>39834</v>
       </c>
       <c r="O2" s="4">
-        <v>40015.0</v>
+        <v>40015</v>
       </c>
       <c r="P2" s="4">
-        <v>40199.0</v>
+        <v>40199</v>
       </c>
       <c r="Q2" s="4">
-        <v>40380.0</v>
+        <v>40380</v>
       </c>
       <c r="R2" s="4">
-        <v>40564.0</v>
+        <v>40564</v>
       </c>
       <c r="S2" s="4">
-        <v>40745.0</v>
+        <v>40745</v>
       </c>
       <c r="T2" s="4">
-        <v>40929.0</v>
+        <v>40929</v>
       </c>
       <c r="U2" s="4">
-        <v>41111.0</v>
+        <v>41111</v>
       </c>
       <c r="V2" s="4">
-        <v>41295.0</v>
+        <v>41295</v>
       </c>
       <c r="W2" s="4">
-        <v>41476.0</v>
+        <v>41476</v>
       </c>
       <c r="X2" s="4">
-        <v>41660.0</v>
+        <v>41660</v>
       </c>
       <c r="Y2" s="4">
-        <v>41841.0</v>
+        <v>41841</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:67" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
@@ -1012,73 +1024,73 @@
         <v>4.75</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E23" si="1">D3/2</f>
+        <f t="shared" ref="E3:E23" si="0">D3/2</f>
         <v>2.375</v>
       </c>
       <c r="F3" s="7">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="G3" s="8">
-        <v>38923.0</v>
+        <v>38923</v>
       </c>
       <c r="H3" s="8">
-        <v>39107.0</v>
+        <v>39107</v>
       </c>
       <c r="I3" s="8">
-        <v>39288.0</v>
+        <v>39288</v>
       </c>
       <c r="J3" s="8">
-        <v>39472.0</v>
+        <v>39472</v>
       </c>
       <c r="K3" s="8">
-        <v>39654.0</v>
+        <v>39654</v>
       </c>
       <c r="L3" s="8">
-        <v>39838.0</v>
+        <v>39838</v>
       </c>
       <c r="M3" s="8">
-        <v>40019.0</v>
+        <v>40019</v>
       </c>
       <c r="N3" s="8">
-        <v>40203.0</v>
+        <v>40203</v>
       </c>
       <c r="O3" s="8">
-        <v>40384.0</v>
+        <v>40384</v>
       </c>
       <c r="P3" s="8">
-        <v>40568.0</v>
+        <v>40568</v>
       </c>
       <c r="Q3" s="8">
-        <v>40749.0</v>
+        <v>40749</v>
       </c>
       <c r="R3" s="8">
-        <v>40933.0</v>
+        <v>40933</v>
       </c>
       <c r="S3" s="8">
-        <v>41115.0</v>
+        <v>41115</v>
       </c>
       <c r="T3" s="8">
-        <v>41299.0</v>
+        <v>41299</v>
       </c>
       <c r="U3" s="8">
-        <v>41480.0</v>
+        <v>41480</v>
       </c>
       <c r="V3" s="8">
-        <v>41664.0</v>
+        <v>41664</v>
       </c>
       <c r="W3" s="8">
-        <v>41845.0</v>
+        <v>41845</v>
       </c>
       <c r="X3" s="8">
-        <v>42029.0</v>
+        <v>42029</v>
       </c>
       <c r="Y3" s="8">
-        <v>42210.0</v>
+        <v>42210</v>
       </c>
       <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>70</v>
       </c>
@@ -1086,49 +1098,49 @@
         <v>71</v>
       </c>
       <c r="C4" s="8">
-        <v>42211.0</v>
+        <v>42030</v>
       </c>
       <c r="D4" s="7">
         <v>3.125</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.5625</v>
       </c>
       <c r="F4" s="7">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="G4" s="8">
-        <v>40385.0</v>
+        <v>40385</v>
       </c>
       <c r="H4" s="8">
-        <v>40569.0</v>
+        <v>40569</v>
       </c>
       <c r="I4" s="8">
-        <v>40750.0</v>
+        <v>40750</v>
       </c>
       <c r="J4" s="8">
-        <v>40934.0</v>
+        <v>40934</v>
       </c>
       <c r="K4" s="8">
-        <v>41116.0</v>
+        <v>41116</v>
       </c>
       <c r="L4" s="8">
-        <v>41300.0</v>
+        <v>41300</v>
       </c>
       <c r="M4" s="8">
-        <v>41481.0</v>
+        <v>41481</v>
       </c>
       <c r="N4" s="8">
-        <v>41665.0</v>
+        <v>41665</v>
       </c>
       <c r="O4" s="8">
-        <v>41846.0</v>
+        <v>41846</v>
       </c>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:67" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
@@ -1142,42 +1154,42 @@
         <v>2.375</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.1875</v>
       </c>
       <c r="F5" s="7">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="G5" s="8">
-        <v>43938.0</v>
+        <v>43938</v>
       </c>
       <c r="H5" s="9">
-        <v>44121.0</v>
+        <v>44121</v>
       </c>
       <c r="I5" s="8">
-        <v>44303.0</v>
+        <v>44303</v>
       </c>
       <c r="J5" s="9">
-        <v>44486.0</v>
+        <v>44486</v>
       </c>
       <c r="K5" s="8">
-        <v>44668.0</v>
+        <v>44668</v>
       </c>
       <c r="L5" s="9">
-        <v>44851.0</v>
+        <v>44851</v>
       </c>
       <c r="M5" s="8">
-        <v>45033.0</v>
+        <v>45033</v>
       </c>
       <c r="N5" s="9">
-        <v>45216.0</v>
+        <v>45216</v>
       </c>
       <c r="O5" s="8">
-        <v>45399.0</v>
+        <v>45399</v>
       </c>
       <c r="P5" s="9"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:67" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>75</v>
       </c>
@@ -1185,277 +1197,277 @@
         <v>73</v>
       </c>
       <c r="C6" s="10">
-        <v>47408.0</v>
+        <v>47408</v>
       </c>
       <c r="D6" s="7">
         <v>2.875</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.4375</v>
       </c>
       <c r="F6" s="7">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="G6" s="8">
-        <v>43938.0</v>
+        <v>43938</v>
       </c>
       <c r="H6" s="9">
-        <v>44121.0</v>
+        <v>44121</v>
       </c>
       <c r="I6" s="8">
-        <v>44303.0</v>
+        <v>44303</v>
       </c>
       <c r="J6" s="9">
-        <v>44486.0</v>
+        <v>44486</v>
       </c>
       <c r="K6" s="8">
-        <v>44668.0</v>
+        <v>44668</v>
       </c>
       <c r="L6" s="9">
-        <v>44851.0</v>
+        <v>44851</v>
       </c>
       <c r="M6" s="8">
-        <v>45033.0</v>
+        <v>45033</v>
       </c>
       <c r="N6" s="9">
-        <v>45216.0</v>
+        <v>45216</v>
       </c>
       <c r="O6" s="8">
-        <v>45399.0</v>
+        <v>45399</v>
       </c>
       <c r="P6" s="8">
-        <v>45582.0</v>
+        <v>45582</v>
       </c>
       <c r="Q6" s="9">
-        <v>45764.0</v>
+        <v>45764</v>
       </c>
       <c r="R6" s="8">
-        <v>45947.0</v>
+        <v>45947</v>
       </c>
       <c r="S6" s="9">
-        <v>46129.0</v>
+        <v>46129</v>
       </c>
       <c r="T6" s="8">
-        <v>46312.0</v>
+        <v>46312</v>
       </c>
       <c r="U6" s="9">
-        <v>46494.0</v>
+        <v>46494</v>
       </c>
       <c r="V6" s="8">
-        <v>46677.0</v>
+        <v>46677</v>
       </c>
       <c r="W6" s="9">
-        <v>46860.0</v>
+        <v>46860</v>
       </c>
       <c r="X6" s="8">
-        <v>47043.0</v>
+        <v>47043</v>
       </c>
       <c r="Y6" s="8">
-        <v>47225.0</v>
+        <v>47225</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:67" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B7" s="10">
-        <v>43755.0</v>
+        <v>43755</v>
       </c>
       <c r="C7" s="9">
-        <v>54713.0</v>
+        <v>54713</v>
       </c>
       <c r="D7" s="7">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F7" s="7">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="G7" s="8">
-        <v>43938.0</v>
+        <v>43938</v>
       </c>
       <c r="H7" s="9">
-        <v>44121.0</v>
+        <v>44121</v>
       </c>
       <c r="I7" s="8">
-        <v>44303.0</v>
+        <v>44303</v>
       </c>
       <c r="J7" s="9">
-        <v>44486.0</v>
+        <v>44486</v>
       </c>
       <c r="K7" s="8">
-        <v>44668.0</v>
+        <v>44668</v>
       </c>
       <c r="L7" s="9">
-        <v>44851.0</v>
+        <v>44851</v>
       </c>
       <c r="M7" s="8">
-        <v>45033.0</v>
+        <v>45033</v>
       </c>
       <c r="N7" s="9">
-        <v>45216.0</v>
+        <v>45216</v>
       </c>
       <c r="O7" s="8">
-        <v>45399.0</v>
+        <v>45399</v>
       </c>
       <c r="P7" s="8">
-        <v>45582.0</v>
+        <v>45582</v>
       </c>
       <c r="Q7" s="8">
-        <v>45764.0</v>
+        <v>45764</v>
       </c>
       <c r="R7" s="9">
-        <v>45947.0</v>
+        <v>45947</v>
       </c>
       <c r="S7" s="8">
-        <v>46129.0</v>
+        <v>46129</v>
       </c>
       <c r="T7" s="9">
-        <v>46312.0</v>
+        <v>46312</v>
       </c>
       <c r="U7" s="8">
-        <v>46494.0</v>
+        <v>46494</v>
       </c>
       <c r="V7" s="9">
-        <v>46677.0</v>
+        <v>46677</v>
       </c>
       <c r="W7" s="8">
-        <v>46860.0</v>
+        <v>46860</v>
       </c>
       <c r="X7" s="9">
-        <v>47043.0</v>
+        <v>47043</v>
       </c>
       <c r="Y7" s="8">
-        <v>47225.0</v>
+        <v>47225</v>
       </c>
       <c r="Z7" s="8">
-        <v>47408.0</v>
+        <v>47408</v>
       </c>
       <c r="AA7" s="8">
-        <v>47590.0</v>
+        <v>47590</v>
       </c>
       <c r="AB7" s="9">
-        <v>47773.0</v>
+        <v>47773</v>
       </c>
       <c r="AC7" s="8">
-        <v>47955.0</v>
+        <v>47955</v>
       </c>
       <c r="AD7" s="9">
-        <v>48138.0</v>
+        <v>48138</v>
       </c>
       <c r="AE7" s="8">
-        <v>48321.0</v>
+        <v>48321</v>
       </c>
       <c r="AF7" s="9">
-        <v>48504.0</v>
+        <v>48504</v>
       </c>
       <c r="AG7" s="8">
-        <v>48686.0</v>
+        <v>48686</v>
       </c>
       <c r="AH7" s="9">
-        <v>48869.0</v>
+        <v>48869</v>
       </c>
       <c r="AI7" s="8">
-        <v>49051.0</v>
+        <v>49051</v>
       </c>
       <c r="AJ7" s="8">
-        <v>49234.0</v>
+        <v>49234</v>
       </c>
       <c r="AK7" s="9">
-        <v>49416.0</v>
+        <v>49416</v>
       </c>
       <c r="AL7" s="8">
-        <v>49599.0</v>
+        <v>49599</v>
       </c>
       <c r="AM7" s="9">
-        <v>49782.0</v>
+        <v>49782</v>
       </c>
       <c r="AN7" s="8">
-        <v>49965.0</v>
+        <v>49965</v>
       </c>
       <c r="AO7" s="9">
-        <v>50147.0</v>
+        <v>50147</v>
       </c>
       <c r="AP7" s="8">
-        <v>50330.0</v>
+        <v>50330</v>
       </c>
       <c r="AQ7" s="8">
-        <v>50512.0</v>
+        <v>50512</v>
       </c>
       <c r="AR7" s="9">
-        <v>50695.0</v>
+        <v>50695</v>
       </c>
       <c r="AS7" s="8">
-        <v>50877.0</v>
+        <v>50877</v>
       </c>
       <c r="AT7" s="9">
-        <v>51060.0</v>
+        <v>51060</v>
       </c>
       <c r="AU7" s="8">
-        <v>51243.0</v>
+        <v>51243</v>
       </c>
       <c r="AV7" s="9">
-        <v>51426.0</v>
+        <v>51426</v>
       </c>
       <c r="AW7" s="8">
-        <v>51608.0</v>
+        <v>51608</v>
       </c>
       <c r="AX7" s="8">
-        <v>51791.0</v>
+        <v>51791</v>
       </c>
       <c r="AY7" s="9">
-        <v>51973.0</v>
+        <v>51973</v>
       </c>
       <c r="AZ7" s="8">
-        <v>52156.0</v>
+        <v>52156</v>
       </c>
       <c r="BA7" s="9">
-        <v>52338.0</v>
+        <v>52338</v>
       </c>
       <c r="BB7" s="8">
-        <v>52521.0</v>
+        <v>52521</v>
       </c>
       <c r="BC7" s="9">
-        <v>52704.0</v>
+        <v>52704</v>
       </c>
       <c r="BD7" s="8">
-        <v>52887.0</v>
+        <v>52887</v>
       </c>
       <c r="BE7" s="9">
-        <v>53069.0</v>
+        <v>53069</v>
       </c>
       <c r="BF7" s="8">
-        <v>53252.0</v>
+        <v>53252</v>
       </c>
       <c r="BG7" s="8">
-        <v>53434.0</v>
+        <v>53434</v>
       </c>
       <c r="BH7" s="9">
-        <v>53617.0</v>
+        <v>53617</v>
       </c>
       <c r="BI7" s="8">
-        <v>53799.0</v>
+        <v>53799</v>
       </c>
       <c r="BJ7" s="9">
-        <v>53982.0</v>
+        <v>53982</v>
       </c>
       <c r="BK7" s="9">
-        <v>54165.0</v>
+        <v>54165</v>
       </c>
       <c r="BL7" s="8">
-        <v>54348.0</v>
+        <v>54348</v>
       </c>
       <c r="BM7" s="9">
-        <v>54530.0</v>
+        <v>54530</v>
       </c>
       <c r="BN7" s="9"/>
       <c r="BO7" s="8"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:67" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>77</v>
       </c>
@@ -1463,49 +1475,49 @@
         <v>78</v>
       </c>
       <c r="C8" s="9">
-        <v>39015.0</v>
+        <v>39015</v>
       </c>
       <c r="D8" s="7">
         <v>4.375</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.1875</v>
       </c>
       <c r="F8" s="7">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="8">
-        <v>37371.0</v>
+        <v>37371</v>
       </c>
       <c r="H8" s="9">
-        <v>37554.0</v>
+        <v>37554</v>
       </c>
       <c r="I8" s="8">
-        <v>37736.0</v>
+        <v>37736</v>
       </c>
       <c r="J8" s="9">
-        <v>37919.0</v>
+        <v>37919</v>
       </c>
       <c r="K8" s="8">
-        <v>38102.0</v>
+        <v>38102</v>
       </c>
       <c r="L8" s="9">
-        <v>38285.0</v>
+        <v>38285</v>
       </c>
       <c r="M8" s="8">
-        <v>38467.0</v>
+        <v>38467</v>
       </c>
       <c r="N8" s="9">
-        <v>38650.0</v>
+        <v>38650</v>
       </c>
       <c r="O8" s="8">
-        <v>38832.0</v>
+        <v>38832</v>
       </c>
       <c r="P8" s="9"/>
       <c r="Q8" s="8"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:67" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>79</v>
       </c>
@@ -1519,26 +1531,26 @@
         <v>2.125</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0625</v>
       </c>
       <c r="F9" s="7">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="8">
-        <v>40273.0</v>
+        <v>40273</v>
       </c>
       <c r="H9" s="8">
-        <v>40456.0</v>
+        <v>40456</v>
       </c>
       <c r="I9" s="8">
-        <v>40638.0</v>
+        <v>40638</v>
       </c>
       <c r="J9" s="8">
-        <v>40821.0</v>
+        <v>40821</v>
       </c>
       <c r="K9" s="8">
-        <v>41004.0</v>
+        <v>41004</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
@@ -1547,7 +1559,7 @@
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:67" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -1555,42 +1567,42 @@
         <v>83</v>
       </c>
       <c r="C10" s="9">
-        <v>39430.0</v>
+        <v>39430</v>
       </c>
       <c r="D10" s="7">
         <v>3.75</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.875</v>
       </c>
       <c r="F10" s="7">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="9">
-        <v>38335.0</v>
+        <v>38335</v>
       </c>
       <c r="H10" s="8">
-        <v>38517.0</v>
+        <v>38517</v>
       </c>
       <c r="I10" s="9">
-        <v>38700.0</v>
+        <v>38700</v>
       </c>
       <c r="J10" s="8">
-        <v>38882.0</v>
+        <v>38882</v>
       </c>
       <c r="K10" s="9">
-        <v>39065.0</v>
+        <v>39065</v>
       </c>
       <c r="L10" s="8">
-        <v>39247.0</v>
+        <v>39247</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="8"/>
       <c r="O10" s="9"/>
       <c r="P10" s="8"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:67" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>84</v>
       </c>
@@ -1598,78 +1610,78 @@
         <v>85</v>
       </c>
       <c r="C11" s="8">
-        <v>40596.0</v>
+        <v>40596</v>
       </c>
       <c r="D11" s="7">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F11" s="7">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="G11" s="8">
-        <v>37125.0</v>
+        <v>37125</v>
       </c>
       <c r="H11" s="8">
-        <v>37309.0</v>
+        <v>37309</v>
       </c>
       <c r="I11" s="8">
-        <v>37490.0</v>
+        <v>37490</v>
       </c>
       <c r="J11" s="8">
-        <v>37674.0</v>
+        <v>37674</v>
       </c>
       <c r="K11" s="8">
-        <v>37855.0</v>
+        <v>37855</v>
       </c>
       <c r="L11" s="8">
-        <v>38039.0</v>
+        <v>38039</v>
       </c>
       <c r="M11" s="8">
-        <v>38221.0</v>
+        <v>38221</v>
       </c>
       <c r="N11" s="8">
-        <v>38405.0</v>
+        <v>38405</v>
       </c>
       <c r="O11" s="8">
-        <v>38586.0</v>
+        <v>38586</v>
       </c>
       <c r="P11" s="8">
-        <v>38770.0</v>
+        <v>38770</v>
       </c>
       <c r="Q11" s="8">
-        <v>38951.0</v>
+        <v>38951</v>
       </c>
       <c r="R11" s="8">
-        <v>39135.0</v>
+        <v>39135</v>
       </c>
       <c r="S11" s="8">
-        <v>39316.0</v>
+        <v>39316</v>
       </c>
       <c r="T11" s="8">
-        <v>39500.0</v>
+        <v>39500</v>
       </c>
       <c r="U11" s="8">
-        <v>39682.0</v>
+        <v>39682</v>
       </c>
       <c r="V11" s="8">
-        <v>39866.0</v>
+        <v>39866</v>
       </c>
       <c r="W11" s="8">
-        <v>40047.0</v>
+        <v>40047</v>
       </c>
       <c r="X11" s="8">
-        <v>40231.0</v>
+        <v>40231</v>
       </c>
       <c r="Y11" s="8">
-        <v>40412.0</v>
+        <v>40412</v>
       </c>
       <c r="Z11" s="8"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:67" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>86</v>
       </c>
@@ -1683,26 +1695,26 @@
         <v>2.5</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
       <c r="F12" s="7">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="G12" s="8">
-        <v>37894.0</v>
+        <v>37894</v>
       </c>
       <c r="H12" s="8">
-        <v>38077.0</v>
+        <v>38077</v>
       </c>
       <c r="I12" s="8">
-        <v>38260.0</v>
+        <v>38260</v>
       </c>
       <c r="J12" s="8">
-        <v>38442.0</v>
+        <v>38442</v>
       </c>
       <c r="K12" s="8">
-        <v>38625.0</v>
+        <v>38625</v>
       </c>
       <c r="L12" s="8"/>
       <c r="N12" s="8"/>
@@ -1713,7 +1725,7 @@
       <c r="V12" s="8"/>
       <c r="X12" s="8"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:67" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>89</v>
       </c>
@@ -1727,41 +1739,41 @@
         <v>5.25</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.625</v>
       </c>
       <c r="F13" s="7">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="G13" s="8">
-        <v>37169.0</v>
+        <v>37169</v>
       </c>
       <c r="H13" s="8">
-        <v>37351.0</v>
+        <v>37351</v>
       </c>
       <c r="I13" s="8">
-        <v>37534.0</v>
+        <v>37534</v>
       </c>
       <c r="J13" s="8">
-        <v>37716.0</v>
+        <v>37716</v>
       </c>
       <c r="K13" s="8">
-        <v>37899.0</v>
+        <v>37899</v>
       </c>
       <c r="L13" s="8">
-        <v>38082.0</v>
+        <v>38082</v>
       </c>
       <c r="M13" s="8">
-        <v>38265.0</v>
+        <v>38265</v>
       </c>
       <c r="N13" s="8">
-        <v>38447.0</v>
+        <v>38447</v>
       </c>
       <c r="O13" s="8">
-        <v>38630.0</v>
+        <v>38630</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:67" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>92</v>
       </c>
@@ -1775,24 +1787,24 @@
         <v>6.75</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.375</v>
       </c>
       <c r="F14" s="7">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="G14" s="8">
-        <v>36832.0</v>
+        <v>36832</v>
       </c>
       <c r="H14" s="8">
-        <v>37013.0</v>
+        <v>37013</v>
       </c>
       <c r="I14" s="8">
-        <v>37197.0</v>
+        <v>37197</v>
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:67" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>95</v>
       </c>
@@ -1806,26 +1818,26 @@
         <v>0.875</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.4375</v>
       </c>
       <c r="F15" s="7">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="G15" s="8">
-        <v>44506.0</v>
+        <v>44506</v>
       </c>
       <c r="H15" s="8">
-        <v>44687.0</v>
+        <v>44687</v>
       </c>
       <c r="I15" s="8">
-        <v>44871.0</v>
+        <v>44871</v>
       </c>
       <c r="J15" s="8">
-        <v>45052.0</v>
+        <v>45052</v>
       </c>
       <c r="K15" s="8">
-        <v>45236.0</v>
+        <v>45236</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
@@ -1839,7 +1851,7 @@
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:67" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>98</v>
       </c>
@@ -1853,192 +1865,192 @@
         <v>3.875</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9375</v>
       </c>
       <c r="F16" s="7">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="G16" s="8">
-        <v>44506.0</v>
+        <v>44506</v>
       </c>
       <c r="H16" s="8">
-        <v>44687.0</v>
+        <v>44687</v>
       </c>
       <c r="I16" s="8">
-        <v>44871.0</v>
+        <v>44871</v>
       </c>
       <c r="J16" s="8">
-        <v>45052.0</v>
+        <v>45052</v>
       </c>
       <c r="K16" s="8">
-        <v>45236.0</v>
+        <v>45236</v>
       </c>
       <c r="L16" s="8">
-        <v>45418.0</v>
+        <v>45418</v>
       </c>
       <c r="M16" s="8">
-        <v>45602.0</v>
+        <v>45602</v>
       </c>
       <c r="N16" s="8">
-        <v>45783.0</v>
+        <v>45783</v>
       </c>
       <c r="O16" s="8">
-        <v>45967.0</v>
+        <v>45967</v>
       </c>
       <c r="P16" s="8">
-        <v>46148.0</v>
+        <v>46148</v>
       </c>
       <c r="Q16" s="8">
-        <v>46332.0</v>
+        <v>46332</v>
       </c>
       <c r="R16" s="8">
-        <v>46513.0</v>
+        <v>46513</v>
       </c>
       <c r="S16" s="8">
-        <v>46697.0</v>
+        <v>46697</v>
       </c>
       <c r="T16" s="8">
-        <v>46879.0</v>
+        <v>46879</v>
       </c>
       <c r="U16" s="8">
-        <v>47063.0</v>
+        <v>47063</v>
       </c>
       <c r="V16" s="8">
-        <v>47244.0</v>
+        <v>47244</v>
       </c>
       <c r="W16" s="8">
-        <v>47428.0</v>
+        <v>47428</v>
       </c>
       <c r="X16" s="8">
-        <v>47609.0</v>
+        <v>47609</v>
       </c>
       <c r="Y16" s="8">
-        <v>47793.0</v>
+        <v>47793</v>
       </c>
       <c r="Z16" s="8">
-        <v>47974.0</v>
+        <v>47974</v>
       </c>
       <c r="AA16" s="8">
-        <v>48158.0</v>
+        <v>48158</v>
       </c>
       <c r="AB16" s="8">
-        <v>48340.0</v>
+        <v>48340</v>
       </c>
       <c r="AC16" s="8">
-        <v>48524.0</v>
+        <v>48524</v>
       </c>
       <c r="AD16" s="8">
-        <v>48705.0</v>
+        <v>48705</v>
       </c>
       <c r="AE16" s="8">
-        <v>48889.0</v>
+        <v>48889</v>
       </c>
       <c r="AF16" s="8">
-        <v>49070.0</v>
+        <v>49070</v>
       </c>
       <c r="AG16" s="8">
-        <v>49254.0</v>
+        <v>49254</v>
       </c>
       <c r="AH16" s="8">
-        <v>49435.0</v>
+        <v>49435</v>
       </c>
       <c r="AI16" s="8">
-        <v>49619.0</v>
+        <v>49619</v>
       </c>
       <c r="AJ16" s="8">
-        <v>49801.0</v>
+        <v>49801</v>
       </c>
       <c r="AK16" s="8">
-        <v>49985.0</v>
+        <v>49985</v>
       </c>
       <c r="AL16" s="8">
-        <v>50166.0</v>
+        <v>50166</v>
       </c>
       <c r="AM16" s="8">
-        <v>50350.0</v>
+        <v>50350</v>
       </c>
       <c r="AN16" s="8">
-        <v>50531.0</v>
+        <v>50531</v>
       </c>
       <c r="AO16" s="8">
-        <v>50715.0</v>
+        <v>50715</v>
       </c>
       <c r="AP16" s="8">
-        <v>50896.0</v>
+        <v>50896</v>
       </c>
       <c r="AQ16" s="8">
-        <v>51080.0</v>
+        <v>51080</v>
       </c>
       <c r="AR16" s="8">
-        <v>51262.0</v>
+        <v>51262</v>
       </c>
       <c r="AS16" s="8">
-        <v>51446.0</v>
+        <v>51446</v>
       </c>
       <c r="AT16" s="8">
-        <v>51627.0</v>
+        <v>51627</v>
       </c>
       <c r="AU16" s="8">
-        <v>51811.0</v>
+        <v>51811</v>
       </c>
       <c r="AV16" s="8">
-        <v>51992.0</v>
+        <v>51992</v>
       </c>
       <c r="AW16" s="8">
-        <v>52176.0</v>
+        <v>52176</v>
       </c>
       <c r="AX16" s="8">
-        <v>52357.0</v>
+        <v>52357</v>
       </c>
       <c r="AY16" s="8">
-        <v>52541.0</v>
+        <v>52541</v>
       </c>
       <c r="AZ16" s="8">
-        <v>52723.0</v>
+        <v>52723</v>
       </c>
       <c r="BA16" s="8">
-        <v>52907.0</v>
+        <v>52907</v>
       </c>
       <c r="BB16" s="8">
-        <v>53088.0</v>
+        <v>53088</v>
       </c>
       <c r="BC16" s="8">
-        <v>53272.0</v>
+        <v>53272</v>
       </c>
       <c r="BD16" s="8">
-        <v>53453.0</v>
+        <v>53453</v>
       </c>
       <c r="BE16" s="8">
-        <v>53637.0</v>
+        <v>53637</v>
       </c>
       <c r="BF16" s="8">
-        <v>53818.0</v>
+        <v>53818</v>
       </c>
       <c r="BG16" s="8">
-        <v>54002.0</v>
+        <v>54002</v>
       </c>
       <c r="BH16" s="8">
-        <v>54184.0</v>
+        <v>54184</v>
       </c>
       <c r="BI16" s="8">
-        <v>54368.0</v>
+        <v>54368</v>
       </c>
       <c r="BJ16" s="8">
-        <v>54549.0</v>
+        <v>54549</v>
       </c>
       <c r="BK16" s="8">
-        <v>54733.0</v>
+        <v>54733</v>
       </c>
       <c r="BL16" s="8">
-        <v>54914.0</v>
+        <v>54914</v>
       </c>
       <c r="BM16" s="8">
-        <v>55098.0</v>
+        <v>55098</v>
       </c>
       <c r="BN16" s="8"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:67" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>100</v>
       </c>
@@ -2052,75 +2064,75 @@
         <v>5.375</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.6875</v>
       </c>
       <c r="F17" s="7">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="G17" s="8">
-        <v>39428.0</v>
+        <v>39428</v>
       </c>
       <c r="H17" s="8">
-        <v>39611.0</v>
+        <v>39611</v>
       </c>
       <c r="I17" s="8">
-        <v>39794.0</v>
+        <v>39794</v>
       </c>
       <c r="J17" s="8">
-        <v>39976.0</v>
+        <v>39976</v>
       </c>
       <c r="K17" s="8">
-        <v>40159.0</v>
+        <v>40159</v>
       </c>
       <c r="L17" s="8">
-        <v>40341.0</v>
+        <v>40341</v>
       </c>
       <c r="M17" s="8">
-        <v>40524.0</v>
+        <v>40524</v>
       </c>
       <c r="N17" s="8">
-        <v>40706.0</v>
+        <v>40706</v>
       </c>
       <c r="O17" s="8">
-        <v>40889.0</v>
+        <v>40889</v>
       </c>
       <c r="P17" s="8">
-        <v>41072.0</v>
+        <v>41072</v>
       </c>
       <c r="Q17" s="8">
-        <v>41255.0</v>
+        <v>41255</v>
       </c>
       <c r="R17" s="8">
-        <v>41437.0</v>
+        <v>41437</v>
       </c>
       <c r="S17" s="8">
-        <v>41620.0</v>
+        <v>41620</v>
       </c>
       <c r="T17" s="8">
-        <v>41802.0</v>
+        <v>41802</v>
       </c>
       <c r="U17" s="8">
-        <v>41985.0</v>
+        <v>41985</v>
       </c>
       <c r="V17" s="8">
-        <v>42167.0</v>
+        <v>42167</v>
       </c>
       <c r="W17" s="8">
-        <v>42350.0</v>
+        <v>42350</v>
       </c>
       <c r="X17" s="8">
-        <v>42533.0</v>
+        <v>42533</v>
       </c>
       <c r="Y17" s="8">
-        <v>42716.0</v>
+        <v>42716</v>
       </c>
       <c r="Z17" s="8"/>
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:67" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>103</v>
       </c>
@@ -2134,32 +2146,32 @@
         <v>4.625</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.3125</v>
       </c>
       <c r="F18" s="7">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="G18" s="8">
-        <v>37422.0</v>
+        <v>37422</v>
       </c>
       <c r="H18" s="9">
-        <v>37605.0</v>
+        <v>37605</v>
       </c>
       <c r="I18" s="8">
-        <v>37787.0</v>
+        <v>37787</v>
       </c>
       <c r="J18" s="9">
-        <v>37970.0</v>
+        <v>37970</v>
       </c>
       <c r="K18" s="8">
-        <v>38153.0</v>
+        <v>38153</v>
       </c>
       <c r="L18" s="9">
-        <v>38336.0</v>
+        <v>38336</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:67" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>106</v>
       </c>
@@ -2173,71 +2185,71 @@
         <v>5.625</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.8125</v>
       </c>
       <c r="F19" s="7">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="G19" s="8">
-        <v>37422.0</v>
+        <v>37422</v>
       </c>
       <c r="H19" s="9">
-        <v>37605.0</v>
+        <v>37605</v>
       </c>
       <c r="I19" s="8">
-        <v>37787.0</v>
+        <v>37787</v>
       </c>
       <c r="J19" s="9">
-        <v>37970.0</v>
+        <v>37970</v>
       </c>
       <c r="K19" s="8">
-        <v>38153.0</v>
+        <v>38153</v>
       </c>
       <c r="L19" s="9">
-        <v>38336.0</v>
+        <v>38336</v>
       </c>
       <c r="M19" s="8">
-        <v>38518.0</v>
+        <v>38518</v>
       </c>
       <c r="N19" s="9">
-        <v>38701.0</v>
+        <v>38701</v>
       </c>
       <c r="O19" s="8">
-        <v>38883.0</v>
+        <v>38883</v>
       </c>
       <c r="P19" s="9">
-        <v>39066.0</v>
+        <v>39066</v>
       </c>
       <c r="Q19" s="8">
-        <v>39248.0</v>
+        <v>39248</v>
       </c>
       <c r="R19" s="9">
-        <v>39431.0</v>
+        <v>39431</v>
       </c>
       <c r="S19" s="8">
-        <v>39614.0</v>
+        <v>39614</v>
       </c>
       <c r="T19" s="9">
-        <v>39797.0</v>
+        <v>39797</v>
       </c>
       <c r="U19" s="8">
-        <v>39979.0</v>
+        <v>39979</v>
       </c>
       <c r="V19" s="9">
-        <v>40162.0</v>
+        <v>40162</v>
       </c>
       <c r="W19" s="8">
-        <v>40344.0</v>
+        <v>40344</v>
       </c>
       <c r="X19" s="9">
-        <v>40527.0</v>
+        <v>40527</v>
       </c>
       <c r="Y19" s="8">
-        <v>40709.0</v>
+        <v>40709</v>
       </c>
       <c r="Z19" s="9">
-        <v>40892.0</v>
+        <v>40892</v>
       </c>
       <c r="AA19" s="8"/>
       <c r="AB19" s="9"/>
@@ -2257,7 +2269,7 @@
       <c r="AP19" s="9"/>
       <c r="AQ19" s="8"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:67" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>109</v>
       </c>
@@ -2271,76 +2283,76 @@
         <v>4.375</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.1875</v>
       </c>
       <c r="F20" s="7">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="8">
-        <v>37787.0</v>
+        <v>37787</v>
       </c>
       <c r="H20" s="9">
-        <v>37970.0</v>
+        <v>37970</v>
       </c>
       <c r="I20" s="8">
-        <v>38153.0</v>
+        <v>38153</v>
       </c>
       <c r="J20" s="9">
-        <v>38336.0</v>
+        <v>38336</v>
       </c>
       <c r="K20" s="8">
-        <v>38518.0</v>
+        <v>38518</v>
       </c>
       <c r="L20" s="9">
-        <v>38701.0</v>
+        <v>38701</v>
       </c>
       <c r="M20" s="8">
-        <v>38883.0</v>
+        <v>38883</v>
       </c>
       <c r="N20" s="9">
-        <v>39066.0</v>
+        <v>39066</v>
       </c>
       <c r="O20" s="8">
-        <v>39248.0</v>
+        <v>39248</v>
       </c>
       <c r="P20" s="9">
-        <v>39431.0</v>
+        <v>39431</v>
       </c>
       <c r="Q20" s="8">
-        <v>39614.0</v>
+        <v>39614</v>
       </c>
       <c r="R20" s="9">
-        <v>39797.0</v>
+        <v>39797</v>
       </c>
       <c r="S20" s="8">
-        <v>39979.0</v>
+        <v>39979</v>
       </c>
       <c r="T20" s="9">
-        <v>40162.0</v>
+        <v>40162</v>
       </c>
       <c r="U20" s="8">
-        <v>40344.0</v>
+        <v>40344</v>
       </c>
       <c r="V20" s="9">
-        <v>40527.0</v>
+        <v>40527</v>
       </c>
       <c r="W20" s="8">
-        <v>40709.0</v>
+        <v>40709</v>
       </c>
       <c r="X20" s="9">
-        <v>40892.0</v>
+        <v>40892</v>
       </c>
       <c r="Y20" s="8">
-        <v>41075.0</v>
+        <v>41075</v>
       </c>
       <c r="Z20" s="9">
-        <v>41258.0</v>
+        <v>41258</v>
       </c>
       <c r="AA20" s="8"/>
       <c r="AB20" s="9"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:67" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>112</v>
       </c>
@@ -2354,195 +2366,195 @@
         <v>5.375</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.6875</v>
       </c>
       <c r="F21" s="7">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="G21" s="8">
-        <v>37787.0</v>
+        <v>37787</v>
       </c>
       <c r="H21" s="9">
-        <v>37970.0</v>
+        <v>37970</v>
       </c>
       <c r="I21" s="8">
-        <v>38153.0</v>
+        <v>38153</v>
       </c>
       <c r="J21" s="9">
-        <v>38336.0</v>
+        <v>38336</v>
       </c>
       <c r="K21" s="8">
-        <v>38518.0</v>
+        <v>38518</v>
       </c>
       <c r="L21" s="9">
-        <v>38701.0</v>
+        <v>38701</v>
       </c>
       <c r="M21" s="8">
-        <v>38883.0</v>
+        <v>38883</v>
       </c>
       <c r="N21" s="9">
-        <v>39066.0</v>
+        <v>39066</v>
       </c>
       <c r="O21" s="8">
-        <v>39248.0</v>
+        <v>39248</v>
       </c>
       <c r="P21" s="9">
-        <v>39431.0</v>
+        <v>39431</v>
       </c>
       <c r="Q21" s="8">
-        <v>39614.0</v>
+        <v>39614</v>
       </c>
       <c r="R21" s="9">
-        <v>39797.0</v>
+        <v>39797</v>
       </c>
       <c r="S21" s="8">
-        <v>39979.0</v>
+        <v>39979</v>
       </c>
       <c r="T21" s="9">
-        <v>40162.0</v>
+        <v>40162</v>
       </c>
       <c r="U21" s="8">
-        <v>40344.0</v>
+        <v>40344</v>
       </c>
       <c r="V21" s="9">
-        <v>40527.0</v>
+        <v>40527</v>
       </c>
       <c r="W21" s="8">
-        <v>40709.0</v>
+        <v>40709</v>
       </c>
       <c r="X21" s="9">
-        <v>40892.0</v>
+        <v>40892</v>
       </c>
       <c r="Y21" s="8">
-        <v>41075.0</v>
+        <v>41075</v>
       </c>
       <c r="Z21" s="9">
-        <v>41258.0</v>
+        <v>41258</v>
       </c>
       <c r="AA21" s="9">
-        <v>41440.0</v>
+        <v>41440</v>
       </c>
       <c r="AB21" s="8">
-        <v>41623.0</v>
+        <v>41623</v>
       </c>
       <c r="AC21" s="9">
-        <v>41805.0</v>
+        <v>41805</v>
       </c>
       <c r="AD21" s="8">
-        <v>41988.0</v>
+        <v>41988</v>
       </c>
       <c r="AE21" s="9">
-        <v>42170.0</v>
+        <v>42170</v>
       </c>
       <c r="AF21" s="8">
-        <v>42353.0</v>
+        <v>42353</v>
       </c>
       <c r="AG21" s="9">
-        <v>42536.0</v>
+        <v>42536</v>
       </c>
       <c r="AH21" s="8">
-        <v>42719.0</v>
+        <v>42719</v>
       </c>
       <c r="AI21" s="9">
-        <v>42901.0</v>
+        <v>42901</v>
       </c>
       <c r="AJ21" s="8">
-        <v>43084.0</v>
+        <v>43084</v>
       </c>
       <c r="AK21" s="9">
-        <v>43266.0</v>
+        <v>43266</v>
       </c>
       <c r="AL21" s="8">
-        <v>43449.0</v>
+        <v>43449</v>
       </c>
       <c r="AM21" s="9">
-        <v>43631.0</v>
+        <v>43631</v>
       </c>
       <c r="AN21" s="8">
-        <v>43814.0</v>
+        <v>43814</v>
       </c>
       <c r="AO21" s="9">
-        <v>43997.0</v>
+        <v>43997</v>
       </c>
       <c r="AP21" s="8">
-        <v>44180.0</v>
+        <v>44180</v>
       </c>
       <c r="AQ21" s="9">
-        <v>44362.0</v>
+        <v>44362</v>
       </c>
       <c r="AR21" s="8">
-        <v>44545.0</v>
+        <v>44545</v>
       </c>
       <c r="AS21" s="9">
-        <v>44727.0</v>
+        <v>44727</v>
       </c>
       <c r="AT21" s="9">
-        <v>44910.0</v>
+        <v>44910</v>
       </c>
       <c r="AU21" s="8">
-        <v>45092.0</v>
+        <v>45092</v>
       </c>
       <c r="AV21" s="9">
-        <v>45275.0</v>
+        <v>45275</v>
       </c>
       <c r="AW21" s="8">
-        <v>45458.0</v>
+        <v>45458</v>
       </c>
       <c r="AX21" s="9">
-        <v>45641.0</v>
+        <v>45641</v>
       </c>
       <c r="AY21" s="8">
-        <v>45823.0</v>
+        <v>45823</v>
       </c>
       <c r="AZ21" s="9">
-        <v>46006.0</v>
+        <v>46006</v>
       </c>
       <c r="BA21" s="8">
-        <v>46188.0</v>
+        <v>46188</v>
       </c>
       <c r="BB21" s="9">
-        <v>46371.0</v>
+        <v>46371</v>
       </c>
       <c r="BC21" s="8">
-        <v>46553.0</v>
+        <v>46553</v>
       </c>
       <c r="BD21" s="9">
-        <v>46736.0</v>
+        <v>46736</v>
       </c>
       <c r="BE21" s="8">
-        <v>46919.0</v>
+        <v>46919</v>
       </c>
       <c r="BF21" s="9">
-        <v>47102.0</v>
+        <v>47102</v>
       </c>
       <c r="BG21" s="8">
-        <v>47284.0</v>
+        <v>47284</v>
       </c>
       <c r="BH21" s="9">
-        <v>47467.0</v>
+        <v>47467</v>
       </c>
       <c r="BI21" s="8">
-        <v>47649.0</v>
+        <v>47649</v>
       </c>
       <c r="BJ21" s="9">
-        <v>47832.0</v>
+        <v>47832</v>
       </c>
       <c r="BK21" s="8">
-        <v>48014.0</v>
+        <v>48014</v>
       </c>
       <c r="BL21" s="9">
-        <v>48197.0</v>
+        <v>48197</v>
       </c>
       <c r="BM21" s="9">
-        <v>48380.0</v>
+        <v>48380</v>
       </c>
       <c r="BN21" s="8">
-        <v>48563.0</v>
+        <v>48563</v>
       </c>
       <c r="BO21" s="9"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:67" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>114</v>
       </c>
@@ -2556,41 +2568,41 @@
         <v>3.625</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.8125</v>
       </c>
       <c r="F22" s="7">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="8">
-        <v>37694.0</v>
+        <v>37694</v>
       </c>
       <c r="H22" s="8">
-        <v>37878.0</v>
+        <v>37878</v>
       </c>
       <c r="I22" s="8">
-        <v>38060.0</v>
+        <v>38060</v>
       </c>
       <c r="J22" s="8">
-        <v>38244.0</v>
+        <v>38244</v>
       </c>
       <c r="K22" s="8">
-        <v>38425.0</v>
+        <v>38425</v>
       </c>
       <c r="L22" s="8">
-        <v>38609.0</v>
+        <v>38609</v>
       </c>
       <c r="M22" s="8">
-        <v>38790.0</v>
+        <v>38790</v>
       </c>
       <c r="N22" s="8">
-        <v>38974.0</v>
+        <v>38974</v>
       </c>
       <c r="O22" s="8">
-        <v>39155.0</v>
+        <v>39155</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:67" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>117</v>
       </c>
@@ -2604,26 +2616,26 @@
         <v>2.125</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0625</v>
       </c>
       <c r="F23" s="7">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="G23" s="8">
-        <v>40618.0</v>
+        <v>40618</v>
       </c>
       <c r="H23" s="8">
-        <v>40802.0</v>
+        <v>40802</v>
       </c>
       <c r="I23" s="8">
-        <v>40984.0</v>
+        <v>40984</v>
       </c>
       <c r="J23" s="8">
-        <v>41168.0</v>
+        <v>41168</v>
       </c>
       <c r="K23" s="8">
-        <v>41349.0</v>
+        <v>41349</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
@@ -2633,993 +2645,999 @@
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <autoFilter ref="A1:BO23">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="US465410BV92"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>120</v>
       </c>
@@ -3627,52 +3645,52 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>